--- a/OES configuration.xlsx
+++ b/OES configuration.xlsx
@@ -2,51 +2,80 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="40" windowWidth="15300" windowHeight="7830"/>
+    <workbookView xWindow="370" yWindow="600" windowWidth="15040" windowHeight="8240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MC01" sheetId="1" r:id="rId1"/>
     <sheet name="MC02" sheetId="2" r:id="rId2"/>
     <sheet name="Z 1-4 BE, Z 4-6 PC" sheetId="3" r:id="rId3"/>
     <sheet name="Z 1-6 BE" sheetId="4" r:id="rId4"/>
+    <sheet name="Extra OES lines" sheetId="5" r:id="rId5"/>
+    <sheet name="spectrometer settings" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="31">
   <si>
     <t>Zone</t>
   </si>
   <si>
+    <t>Process type</t>
+  </si>
+  <si>
+    <t>Multiplexer channel</t>
+  </si>
+  <si>
+    <t>In use for OES?</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>multiplexer com port</t>
+  </si>
+  <si>
     <t>1A</t>
   </si>
   <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>2A</t>
   </si>
   <si>
+    <t>2B</t>
+  </si>
+  <si>
     <t>3A</t>
   </si>
   <si>
+    <t>3B</t>
+  </si>
+  <si>
     <t>4A</t>
   </si>
   <si>
+    <t>4B</t>
+  </si>
+  <si>
     <t>5A</t>
   </si>
   <si>
-    <t>1B</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>4B</t>
+    <t>PC</t>
   </si>
   <si>
     <t>5B</t>
@@ -58,31 +87,31 @@
     <t>6B</t>
   </si>
   <si>
-    <t>Process type</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>Multiplexer channel</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
     <t>recently broke optical cable, blanked off OES window instead of replacing cable</t>
   </si>
   <si>
-    <t>In use for OES?</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>signal reading 0</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>wavelength Min</t>
+  </si>
+  <si>
+    <t>wavelength Max</t>
+  </si>
+  <si>
+    <t>color (choose names here: http://stackoverflow.com/questions/22408237/named-colors-in-matplotlib or use any hex code)</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>integration time (s)</t>
+  </si>
+  <si>
+    <t>number of scans</t>
   </si>
 </sst>
 </file>
@@ -142,19 +171,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -450,385 +478,404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C9">
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C12">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C13">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C9">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C12">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C13">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -840,183 +887,183 @@
       <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C9">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C12">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C13">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1028,176 +1075,261 @@
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C9">
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C12">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C13">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/OES configuration.xlsx
+++ b/OES configuration.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="370" yWindow="600" windowWidth="15040" windowHeight="8240" activeTab="5"/>
-  </bookViews>
-  <sheets>
-    <sheet name="MC01" sheetId="1" r:id="rId1"/>
-    <sheet name="MC02" sheetId="2" r:id="rId2"/>
-    <sheet name="Z 1-4 BE, Z 4-6 PC" sheetId="3" r:id="rId3"/>
-    <sheet name="Z 1-6 BE" sheetId="4" r:id="rId4"/>
-    <sheet name="Extra OES lines" sheetId="5" r:id="rId5"/>
-    <sheet name="spectrometer settings" sheetId="6" r:id="rId6"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="5"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="MC01" sheetId="1" r:id="rId1"/>
+    <s:sheet name="MC02" sheetId="2" r:id="rId2"/>
+    <s:sheet name="Z 1-4 BE, Z 4-6 PC" sheetId="3" r:id="rId3"/>
+    <s:sheet name="Z 1-6 BE" sheetId="4" r:id="rId4"/>
+    <s:sheet name="Extra OES lines" sheetId="5" r:id="rId5"/>
+    <s:sheet name="spectrometer settings" sheetId="6" r:id="rId6"/>
+    <s:sheet name="Cu3 - OES correlation" sheetId="7" r:id="rId7"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Zone</t>
   </si>
@@ -112,24 +113,37 @@
   </si>
   <si>
     <t>number of scans</t>
+  </si>
+  <si>
+    <t>longer integration time can saturate detector</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Cu3 = a*Cu-515/In-451 + b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,7 +168,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,25 +189,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -477,862 +493,942 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="11.1796875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="13.453125"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="18.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c s="3" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c s="3" r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c s="3" r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c s="3" r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c s="3" r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c s="3" r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+      <c s="4" r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+      <c s="4" r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="1" r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="4" r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c s="4" r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="1" r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="4" r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+      <c s="4" r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="2" r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="4" r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+      <c s="4" r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="2" r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c s="5" r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="1" r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c s="5" r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="1" r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c s="5" r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="1" r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c s="5" r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c s="1" r="D13" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="11.1796875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="17.54296875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="13.453125"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="18.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c s="3" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c s="3" r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c s="3" r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c s="3" r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c s="3" r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c s="3" r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+      <c s="4" r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+      <c s="4" r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="1" r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="4" r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c s="4" r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="1" r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="4" r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+      <c s="4" r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c s="2" r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="4" r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+      <c s="4" r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c s="2" r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c s="5" r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="1" r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c s="5" r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="1" r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c s="5" r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c s="1" r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c s="5" r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c s="1" r="D13" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="17.54296875"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c s="3" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c s="3" r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c s="3" r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c s="3" r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c s="4" r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+      <c s="4" r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c s="1" r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c s="4" r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c s="4" r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c s="1" r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c s="4" r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+      <c s="4" r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c s="2" r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c s="4" r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+      <c s="4" r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c s="1" r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c s="5" r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c s="1" r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c s="5" r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c s="1" r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c s="5" r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c s="1" r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c s="5" r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c s="1" r="D13" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="17.54296875"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c s="3" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c s="3" r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c s="3" r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c s="3" r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c s="4" r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+      <c s="4" r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c s="1" r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c s="4" r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c s="4" r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c s="1" r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c s="4" r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+      <c s="4" r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c s="2" r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c s="4" r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c s="2" r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+      <c s="4" r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c s="2" r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
+      <c s="4" r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c s="1" r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
+      <c s="4" r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c s="1" r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+      <c s="4" r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c s="1" r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
+      <c s="4" r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c s="1" r="D13" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="14.1796875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="14.54296875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="105.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c s="3" r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c s="3" r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c s="3" r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c s="3" r="D1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="16.7265625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="14.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c s="3" r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c s="3" r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c s="3" r="C1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c s="3" r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>20</v>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c s="3" r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c s="3" r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0.1779</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6395999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/OES configuration.xlsx
+++ b/OES configuration.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="5"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="MC01" sheetId="1" r:id="rId1"/>
-    <s:sheet name="MC02" sheetId="2" r:id="rId2"/>
-    <s:sheet name="Z 1-4 BE, Z 4-6 PC" sheetId="3" r:id="rId3"/>
-    <s:sheet name="Z 1-6 BE" sheetId="4" r:id="rId4"/>
-    <s:sheet name="Extra OES lines" sheetId="5" r:id="rId5"/>
-    <s:sheet name="spectrometer settings" sheetId="6" r:id="rId6"/>
-    <s:sheet name="Cu3 - OES correlation" sheetId="7" r:id="rId7"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="370" yWindow="600" windowWidth="15040" windowHeight="8240" activeTab="5"/>
+  </bookViews>
+  <sheets>
+    <sheet name="MC01" sheetId="1" r:id="rId1"/>
+    <sheet name="MC02" sheetId="2" r:id="rId2"/>
+    <sheet name="Z 1-4 BE, Z 4-6 PC" sheetId="3" r:id="rId3"/>
+    <sheet name="Z 1-6 BE" sheetId="4" r:id="rId4"/>
+    <sheet name="Extra OES lines" sheetId="5" r:id="rId5"/>
+    <sheet name="spectrometer settings" sheetId="6" r:id="rId6"/>
+    <sheet name="Cu3 - OES correlation" sheetId="7" r:id="rId7"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="35">
   <si>
     <t>Zone</t>
   </si>
@@ -130,20 +130,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -168,7 +167,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3999755851924192"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,21 +188,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -493,942 +497,914 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="11.1796875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="13.453125"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="18.453125"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c s="3" r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c s="3" r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c s="3" r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c s="3" r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c s="3" r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c s="3" r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c s="4" r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c s="4" r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c s="1" r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c s="4" r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c s="4" r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c s="1" r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c s="4" r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c s="4" r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>15</v>
       </c>
-      <c s="2" r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c s="4" r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c s="4" r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>16</v>
       </c>
-      <c s="2" r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c s="5" r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>11</v>
       </c>
-      <c s="1" r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c s="5" r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>12</v>
       </c>
-      <c s="1" r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c s="5" r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>13</v>
       </c>
-      <c s="1" r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c s="5" r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>14</v>
       </c>
-      <c s="1" r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="11.1796875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="17.54296875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="13.453125"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="18.453125"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c s="3" r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c s="3" r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c s="3" r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c s="3" r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c s="3" r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c s="3" r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c s="4" r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c s="4" r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c s="1" r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c s="4" r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c s="4" r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c s="1" r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c s="4" r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c s="4" r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>15</v>
       </c>
-      <c s="2" r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c s="4" r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c s="4" r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>16</v>
       </c>
-      <c s="2" r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c s="5" r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>11</v>
       </c>
-      <c s="1" r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c s="5" r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>12</v>
       </c>
-      <c s="1" r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c s="5" r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>13</v>
       </c>
-      <c s="1" r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c s="5" r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>14</v>
       </c>
-      <c s="1" r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="17.54296875"/>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c s="3" r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c s="3" r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c s="3" r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c s="3" r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c s="4" r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c s="4" r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c s="1" r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c s="4" r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c s="4" r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c s="1" r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c s="4" r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c s="4" r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>15</v>
       </c>
-      <c s="2" r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c s="4" r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c s="4" r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>16</v>
       </c>
-      <c s="1" r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c s="5" r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>11</v>
       </c>
-      <c s="1" r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c s="5" r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>12</v>
       </c>
-      <c s="1" r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c s="5" r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>13</v>
       </c>
-      <c s="1" r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c s="5" r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>14</v>
       </c>
-      <c s="1" r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="17.54296875"/>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c s="3" r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c s="3" r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c s="3" r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c s="3" r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c s="4" r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c s="4" r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c s="1" r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c s="4" r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c s="4" r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c s="1" r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c s="4" r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c s="4" r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>15</v>
       </c>
-      <c s="2" r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c s="4" r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c s="2" r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c s="4" r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>16</v>
       </c>
-      <c s="2" r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c s="4" r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
         <v>11</v>
       </c>
-      <c s="1" r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c s="4" r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
         <v>12</v>
       </c>
-      <c s="1" r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c s="4" r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
         <v>13</v>
       </c>
-      <c s="1" r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c s="4" r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
         <v>14</v>
       </c>
-      <c s="1" r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="14.1796875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="14.54296875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="105.6328125"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="105.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c s="3" r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c s="3" r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-      <c s="3" r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c s="3" r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="16.7265625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="14.7265625"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c s="3" r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c s="3" r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c s="3" r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c s="3" r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>2</v>
+      <c r="C2">
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
+      <c r="C3">
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-    <s:outlinePr summaryBelow="1" summaryRight="1"/>
-    <s:pageSetUpPr/>
-  </s:sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c s="3" r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c s="3" r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>0.1779</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.6395999999999999</v>
+      <c r="B2">
+        <v>0.63959999999999995</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>